--- a/medicine/Psychotrope/Juglar_(champagne)/Juglar_(champagne).xlsx
+++ b/medicine/Psychotrope/Juglar_(champagne)/Juglar_(champagne).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La maison Juglar est une maison de champagne disparue, basée à Châlons-en-Champagne, qui a été absorbée en 1829 par Jacquesson &amp; Fils. 
 </t>
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'histoire de la maison Juglar est étroitement liée à celle de la maison Jacquesson. En 1798, Claude et Memmie Jacquesson fondent à Châlons-en-Champagne une société de négoces en vins de Champagne. En 1804, Memmie Jacquesson s'associe avec son cousin François Félix Juglar pour qu'il l'aide à développer l'entreprise dont le succès ne faisait que croître. Une partie de la production portait alors le nom de cet associé : F.F. Juglar.
 En 1810, Napoléon Ier visite les caves de la maison et remet une médaille d'or à Félix Juglar ainsi qu'aux Jacquesson, pour la beauté et la richesse des caves de la maison. 
